--- a/user-data/kenya-population-rural-urban/kenya-population-rural-urban.xlsx
+++ b/user-data/kenya-population-rural-urban/kenya-population-rural-urban.xlsx
@@ -321,7 +321,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 34</t>
+    <t xml:space="preserve">Source: 35</t>
   </si>
   <si>
     <t xml:space="preserve"/>

--- a/user-data/kenya-population-rural-urban/kenya-population-rural-urban.xlsx
+++ b/user-data/kenya-population-rural-urban/kenya-population-rural-urban.xlsx
@@ -321,7 +321,7 @@
     <t xml:space="preserve">Units of measure: %</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 35</t>
+    <t xml:space="preserve">Source: 39</t>
   </si>
   <si>
     <t xml:space="preserve"/>
